--- a/data/n2v/tables/model-1-1325-20230828-7.xlsx
+++ b/data/n2v/tables/model-1-1325-20230828-7.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
